--- a/loaded_influencer_data/kennphl/kennphl_video.xlsx
+++ b/loaded_influencer_data/kennphl/kennphl_video.xlsx
@@ -508,43 +508,43 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@kennphl/video/7477670525523758379</t>
+          <t>https://www.tiktok.com/@kennphl/video/7477648806230854958</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6718</v>
+        <v>22200</v>
       </c>
       <c r="C2" t="n">
-        <v>678</v>
+        <v>1842</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>245</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>#foryou #fyp #foryoupage #glam #lipcombo #makeup</t>
+          <t>🎀@Fenty Beauty @maccosmetics @milkmakeup @Hourglass Cosmetics @NARS Cosmetics</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10.16671628460851</v>
+        <v>8.355855855855856</v>
       </c>
       <c r="I2" t="n">
-        <v>10.09228937183686</v>
+        <v>8.297297297297296</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07442691277165824</v>
+        <v>0.05855855855855856</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7442691277165823</v>
+        <v>1.103603603603604</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -558,328 +558,278 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@kennphl/video/7477648806230854958</t>
+          <t>https://www.tiktok.com/@kennphl/video/7473708965273292078</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20400</v>
+        <v>8718</v>
       </c>
       <c r="C3" t="n">
-        <v>1672</v>
+        <v>700</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>216</v>
+        <v>56</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>🎀@Fenty Beauty @maccosmetics @milkmakeup @Hourglass Cosmetics @NARS Cosmetics</t>
+          <t>my bun frizzy ☹️
+#foryou #foryoupage #fyp #skin #hair #makeup #lipcombo</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8.254901960784315</v>
+        <v>8.212892865336087</v>
       </c>
       <c r="I3" t="n">
-        <v>8.196078431372548</v>
+        <v>8.029364533149804</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.1835283321862813</v>
       </c>
       <c r="L3" t="n">
-        <v>1.058823529411765</v>
+        <v>0.6423491626519844</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-02-21</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@kennphl/video/7473708965273292078</t>
+          <t>https://www.tiktok.com/@kennphl/video/7465117126911675694</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7895</v>
+        <v>46000</v>
       </c>
       <c r="C4" t="n">
-        <v>673</v>
+        <v>3210</v>
       </c>
       <c r="D4" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>54</v>
+        <v>445</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>my bun frizzy ☹️
-#foryou #foryoupage #fyp #skin #hair #makeup #lipcombo</t>
+          <t>💘This heat protectant is color safe, fights against frizz, is paraben and silicone free, hydrates your hair, and is suitable for all hair types. Go ahead and cop it luv because you have no reason not to! I promise you won’t regret it 🎀</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8.7017099430019</v>
+        <v>7.034782608695653</v>
       </c>
       <c r="I4" t="n">
-        <v>8.524382520582648</v>
+        <v>6.978260869565217</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1773274224192527</v>
+        <v>0.05652173913043478</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6839772007599746</v>
+        <v>0.9673913043478261</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-01-29</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@kennphl/video/7465117126911675694</t>
+          <t>https://www.tiktok.com/@kennphl/video/7462603814688951598</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44700</v>
+        <v>120800</v>
       </c>
       <c r="C5" t="n">
-        <v>3167</v>
+        <v>12900</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>433</v>
+        <v>1109</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>💘This heat protectant is color safe, fights against frizz, is paraben and silicone free, hydrates your hair, and is suitable for all hair types. Go ahead and cop it luv because you have no reason not to! I promise you won’t regret it 🎀</t>
+          <t>🍒#foryou #foryoupage #fyp #makeup #softglammakeup</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7.140939597315437</v>
+        <v>10.7317880794702</v>
       </c>
       <c r="I5" t="n">
-        <v>7.085011185682327</v>
+        <v>10.67880794701987</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05592841163310962</v>
+        <v>0.05298013245033113</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9686800894854587</v>
+        <v>0.9180463576158939</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@kennphl/video/7462603814688951598</t>
+          <t>https://www.tiktok.com/@kennphl/video/7459494292483099950</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119500</v>
+        <v>30300</v>
       </c>
       <c r="C6" t="n">
-        <v>12800</v>
+        <v>2460</v>
       </c>
       <c r="D6" t="n">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1099</v>
+        <v>306</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>🍒#foryou #foryoupage #fyp #makeup #softglammakeup</t>
+          <t>💋YOUTUBE :kennphillips INSTA: kennphl
+ill be posting content on instagram and youtube as well as vlogs and other fun stuff coming! i wanna stay connceted with you guys in case tiktok is fr leaving 😭🖤</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10.76485355648536</v>
+        <v>8.204620462046204</v>
       </c>
       <c r="I6" t="n">
-        <v>10.71129707112971</v>
+        <v>8.118811881188119</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05355648535564853</v>
+        <v>0.08580858085808581</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9196652719665271</v>
+        <v>1.00990099009901</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-14</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@kennphl/video/7459494292483099950</t>
+          <t>https://www.tiktok.com/@kennphl/video/7456978347529145642</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29600</v>
+        <v>22700</v>
       </c>
       <c r="C7" t="n">
-        <v>2426</v>
+        <v>1616</v>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>294</v>
+        <v>134</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>💋YOUTUBE :kennphillips INSTA: kennphl
-ill be posting content on instagram and youtube as well as vlogs and other fun stuff coming! i wanna stay connceted with you guys in case tiktok is fr leaving 😭🖤</t>
+          <t>lover girl 🎀🧸
+#fyp #foryou #foryoupage #makeup #softglammakeup</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8.280405405405405</v>
+        <v>7.20704845814978</v>
       </c>
       <c r="I7" t="n">
-        <v>8.195945945945946</v>
+        <v>7.118942731277533</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08445945945945946</v>
+        <v>0.0881057268722467</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9932432432432432</v>
+        <v>0.5903083700440528</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@kennphl/video/7456978347529145642</t>
+          <t>https://www.tiktok.com/@kennphl/video/7455753586903911722</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22100</v>
+        <v>439600</v>
       </c>
       <c r="C8" t="n">
-        <v>1601</v>
+        <v>72500</v>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>132</v>
+        <v>6577</v>
       </c>
       <c r="G8" t="inlineStr">
-        <is>
-          <t>lover girl 🎀🧸
-#fyp #foryou #foryoupage #makeup #softglammakeup</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7.334841628959277</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7.244343891402714</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09049773755656108</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.5972850678733032</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2025-01-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@kennphl/video/7455753586903911722</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>432300</v>
-      </c>
-      <c r="C9" t="n">
-        <v>71900</v>
-      </c>
-      <c r="D9" t="n">
-        <v>213</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>6497</v>
-      </c>
-      <c r="G9" t="inlineStr">
         <is>
           <t>💘
 @milkmakeup
@@ -891,102 +841,102 @@
 @Huda Beauty</t>
         </is>
       </c>
+      <c r="H8" t="n">
+        <v>16.54140127388535</v>
+      </c>
+      <c r="I8" t="n">
+        <v>16.49226569608735</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.04913557779799818</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.496132848043676</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-01-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kennphl/video/7455570367235624238</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18600</v>
+      </c>
+      <c r="C9" t="n">
+        <v>859</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>109</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>#fypシ #explorepage #fyp #foryou #foryoupage #makeup #tattoos #softglammakeup</t>
+        </is>
+      </c>
       <c r="H9" t="n">
-        <v>16.68123987971316</v>
+        <v>4.698924731182796</v>
       </c>
       <c r="I9" t="n">
-        <v>16.63196854036549</v>
+        <v>4.618279569892473</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04927133934767523</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="L9" t="n">
-        <v>1.502891510525098</v>
+        <v>0.5860215053763441</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-01-04</t>
+          <t>2025-01-03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@kennphl/video/7455570367235624238</t>
+          <t>https://www.tiktok.com/@kennphl/video/7444325244044692782</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18100</v>
+        <v>26500</v>
       </c>
       <c r="C10" t="n">
-        <v>852</v>
+        <v>1400</v>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>106</v>
+        <v>237</v>
       </c>
       <c r="G10" t="inlineStr">
-        <is>
-          <t>#fypシ #explorepage #fyp #foryou #foryoupage #makeup #tattoos #softglammakeup</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4.790055248618785</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.707182320441989</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.08287292817679558</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.5856353591160222</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2025-01-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@kennphl/video/7444325244044692782</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>26100</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1391</v>
-      </c>
-      <c r="D11" t="n">
-        <v>20</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>234</v>
-      </c>
-      <c r="G11" t="inlineStr">
         <is>
           <t>current fav lip combo 🐆🥥
 @maccosmetics lip liner in oak
@@ -995,27 +945,77 @@
 -</t>
         </is>
       </c>
+      <c r="H10" t="n">
+        <v>5.354716981132075</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.283018867924529</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.07169811320754717</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.8943396226415095</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2024-12-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kennphl/video/7477670525523758379</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6718</v>
+      </c>
+      <c r="C11" t="n">
+        <v>678</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>50</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>#foryou #fyp #foryoupage #glam #lipcombo #makeup</t>
+        </is>
+      </c>
       <c r="H11" t="n">
-        <v>5.406130268199234</v>
+        <v>10.16671628460851</v>
       </c>
       <c r="I11" t="n">
-        <v>5.329501915708812</v>
+        <v>10.09228937183686</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07662835249042146</v>
+        <v>0.07442691277165824</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8965517241379309</v>
+        <v>0.7442691277165823</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2024-12-4</t>
+          <t>2025-03-04</t>
         </is>
       </c>
     </row>
